--- a/Final_Project/Results.xlsx
+++ b/Final_Project/Results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eeb1337d597c500e/Documents/RPI/ECSE4961/Assignments/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="11_F25DC773A252ABDACC1048F0391A74DE5BDE58EA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C23050E2-2213-4068-8C11-074AB0AEBEC6}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="11_F25DC773A252ABDACC1048F0391A74DE5BDE58EA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A4C97A6A-8EB4-4D79-85A6-79FF434DCDE1}"/>
   <bookViews>
-    <workbookView xWindow="-12555" yWindow="6285" windowWidth="18840" windowHeight="12495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9990" yWindow="2910" windowWidth="18840" windowHeight="12495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
   <si>
     <t>Command</t>
   </si>
@@ -359,6 +360,15 @@
   </si>
   <si>
     <t>time sqlite3 TPC-H.db ".read d22.sql"</t>
+  </si>
+  <si>
+    <t>Quesies</t>
+  </si>
+  <si>
+    <t>PGSQL</t>
+  </si>
+  <si>
+    <t>SQLite</t>
   </si>
 </sst>
 </file>
@@ -419,6 +429,1161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PGSQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.816000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.969000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.594000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.623999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.366</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.577999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.861000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.791</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.018000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.233000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7610000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FD0-4357-91A8-B2178667DCF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SQLite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>37.551000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.023999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.045999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.626000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.399900000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.4859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2649999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4FD0-4357-91A8-B2178667DCF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1427307503"/>
+        <c:axId val="1427309999"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1427307503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1427309999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1427309999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1427307503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FE03A2-1DBB-4E53-AB8C-E51130781D0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B7F2CA-9BCF-4B04-ADD3-ADA4BD7DF309}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,4 +2950,240 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C19DBEF-EACA-4135-B5F3-79D511E28DC6}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.21</v>
+      </c>
+      <c r="C2">
+        <v>37.551000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>41.816000000000003</v>
+      </c>
+      <c r="C3">
+        <v>1.4870000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>42.969000000000001</v>
+      </c>
+      <c r="C4">
+        <v>11.023999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>23.594000000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.2130000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>22.623999999999999</v>
+      </c>
+      <c r="C6">
+        <v>6.351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>17.366</v>
+      </c>
+      <c r="C7">
+        <v>5.234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>15.577999999999999</v>
+      </c>
+      <c r="C8">
+        <v>22.045999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5.1879999999999997</v>
+      </c>
+      <c r="C9">
+        <v>35.840000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>27.861000000000001</v>
+      </c>
+      <c r="C10">
+        <v>94.626000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10.791</v>
+      </c>
+      <c r="C11">
+        <v>5.3369999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4.3460000000000001</v>
+      </c>
+      <c r="C12">
+        <v>3.109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.8109999999999999</v>
+      </c>
+      <c r="C13">
+        <v>5.4610000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5.6509999999999998</v>
+      </c>
+      <c r="C14">
+        <v>78.399900000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>27.018000000000001</v>
+      </c>
+      <c r="C15">
+        <v>7.2409999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>8.1020000000000003</v>
+      </c>
+      <c r="C16">
+        <v>5.4859999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>13.233000000000001</v>
+      </c>
+      <c r="C17">
+        <v>2.008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>14.61</v>
+      </c>
+      <c r="C18">
+        <v>6.101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="C19">
+        <v>7.2649999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>4.7610000000000001</v>
+      </c>
+      <c r="C20">
+        <v>30.657</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Final_Project/Results.xlsx
+++ b/Final_Project/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eeb1337d597c500e/Documents/RPI/ECSE4961/Assignments/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="257" documentId="11_F25DC773A252ABDACC1048F0391A74DE5BDE58EA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A4C97A6A-8EB4-4D79-85A6-79FF434DCDE1}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="11_F25DC773A252ABDACC1048F0391A74DE5BDE58EA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A47CD7C2-429E-4E92-9963-35C3D41AC8AE}"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="2910" windowWidth="18840" windowHeight="12495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9945" yWindow="1200" windowWidth="18840" windowHeight="12495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,6 +446,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -506,6 +531,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet3!$A$2:$A$20</c:f>
@@ -668,6 +751,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet3!$A$2:$A$20</c:f>
@@ -807,8 +948,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1557,8 +1699,8 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2957,7 +3099,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Final_Project/Results.xlsx
+++ b/Final_Project/Results.xlsx
@@ -8,26 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eeb1337d597c500e/Documents/RPI/ECSE4961/Assignments/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="11_F25DC773A252ABDACC1048F0391A74DE5BDE58EA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A47CD7C2-429E-4E92-9963-35C3D41AC8AE}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_F25DC773A252ABDACC1048F0391A74DE5BDE58EA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D6A209D4-AEB8-4C94-A8DD-2E1C6630162D}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9945" yWindow="1200" windowWidth="18840" windowHeight="12495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t>Command</t>
   </si>
@@ -369,6 +378,12 @@
   </si>
   <si>
     <t>SQLite</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>STDEV</t>
   </si>
 </sst>
 </file>
@@ -1993,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,10 +3111,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C19DBEF-EACA-4135-B5F3-79D511E28DC6}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3324,6 +3339,32 @@
         <v>30.657</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21">
+        <f>AVERAGE(B2:B20)</f>
+        <v>15.304105263157899</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(C2:C20)</f>
+        <v>19.286152631578943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22">
+        <f>_xlfn.STDEV.S(B2:B21)</f>
+        <v>12.455938917027053</v>
+      </c>
+      <c r="C22">
+        <f>_xlfn.STDEV.S(C2:C21)</f>
+        <v>25.743065481966383</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
